--- a/二評文件/二評雜項/E. 競爭分析.xlsx
+++ b/二評文件/二評雜項/E. 競爭分析.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\家弘\Documents\GitHub\-\二評文件\二評文件雜項\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\家弘\Desktop\二評文件雜項\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t xml:space="preserve">Google Play </t>
   </si>
@@ -123,6 +123,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>詹惟中面相大師</t>
     </r>
@@ -152,32 +156,32 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>面相大師—</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Historic"/>
+        <family val="2"/>
+      </rPr>
+      <t>AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="標楷體"/>
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>簡稱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>A)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>面相大師—</t>
+      <t>掃臉看面相與手相</t>
     </r>
     <r>
       <rPr>
@@ -186,54 +190,16 @@
         <rFont val="Segoe UI Historic"/>
         <family val="2"/>
       </rPr>
-      <t>AI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>掃臉看面相與手相</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
+      <t>App</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Segoe UI Historic"/>
         <family val="2"/>
       </rPr>
-      <t>App</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Historic"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>簡稱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Historic"/>
-        <family val="2"/>
-      </rPr>
-      <t>B)</t>
+      <t/>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -242,7 +208,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -282,13 +248,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
@@ -745,7 +704,7 @@
   <dimension ref="B3:D9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -773,10 +732,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="19.8" x14ac:dyDescent="0.3">
@@ -826,7 +785,9 @@
       <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/二評文件/二評雜項/E. 競爭分析.xlsx
+++ b/二評文件/二評雜項/E. 競爭分析.xlsx
@@ -26,13 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
-    <t xml:space="preserve">Google Play </t>
-  </si>
-  <si>
-    <t xml:space="preserve">App Story </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>平台</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -201,6 +194,14 @@
       </rPr>
       <t/>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>App Store</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Play </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -317,9 +318,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -329,9 +327,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -340,6 +335,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -716,77 +717,77 @@
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="2:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
+      <c r="C3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="21" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
-        <v>3</v>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>5</v>
+      <c r="B6" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="19.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>14</v>
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
